--- a/litio_aus_chl.xlsx
+++ b/litio_aus_chl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e22b8e11b397fbcd/Escritorio/Master Data Science/Tercer Semestre/Financial Data/proyect/LITIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751B1944-F704-4E0B-8466-B74E0B6F0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{751B1944-F704-4E0B-8466-B74E0B6F0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FF61B9-775B-45D2-B092-E9843B6F9F6B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15576" activeTab="5" xr2:uid="{E5CF665B-3C0D-4A6C-A74A-159111E0C762}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15216" firstSheet="4" activeTab="4" xr2:uid="{E5CF665B-3C0D-4A6C-A74A-159111E0C762}"/>
   </bookViews>
   <sheets>
     <sheet name="lit_chl_prod" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="mmm\–yy"/>
+    <numFmt numFmtId="165" formatCode="mmm\–yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -131,7 +131,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -141,13 +140,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +164,1214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>lit_chl_exp_dolar!$B$2:$B$119</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="118"/>
+                <c:pt idx="0">
+                  <c:v>18035929.920000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14270506.790000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31361136.219999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21476966.980000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29101983.209999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17801520.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30280575.880000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28787100.030000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24055852.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28702139.780000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22672390.059999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27738483.549999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40045478.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20208883.039999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23836564.350000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21740897.149999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23166947.690000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18224925.550000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26124913.880000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45192681.670000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22941217.440000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26156972.739999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28295877.719999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19485189.580000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37971511.230000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34216559.649999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41106680.910000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55092140.049999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67510770.689999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53976102.710000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35852381.63000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67858176.959999993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76313763.879999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43748883.710000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>80830249.269999981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44662931.079999991</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72440908.079999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71070059.449999988</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56191427.07</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>102118827.78000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70580347.579999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50642988.569999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51295346.439999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>72263048.170000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68335146.099999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80777603.899999991</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87212817.329999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54384495.800000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>96818739.75999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>86687115.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>62492103.890000008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>120890110.61000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76048169.879999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>110413345.90000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>94955645.450000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>111092734.29000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>63340798.479999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>88978036.430000007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>86281203.680000022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76979651.530000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>120006066.13000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>67010350.550000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>100183269.51000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>62717637.870000005</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82636387.24000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>77488103.799999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81794112.239999995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>71104982.219999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34654951.70000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>67274586.879999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>65151005.579999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>70619638.359999999</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="#,##0.00">
+                  <c:v>67947657.799999997</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="#,##0.00">
+                  <c:v>43667082.899999999</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="#,##0.00">
+                  <c:v>49482600.200000003</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="#,##0.00">
+                  <c:v>61918845.5</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="#,##0.00">
+                  <c:v>50853135.299999997</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="#,##0.00">
+                  <c:v>93115059.799999997</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="#,##0.00">
+                  <c:v>41684660.600000001</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="#,##0.00">
+                  <c:v>53018816.700000003</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="#,##0.00">
+                  <c:v>48146388.100000001</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="#,##0.00">
+                  <c:v>62469539.5</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="#,##0.00">
+                  <c:v>37119270.799999997</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="#,##0.00">
+                  <c:v>61320785.399999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>64623450.100000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40639187.109999992</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>46611088.289999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>110974146.08999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>69254148.260000005</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>78508074.260000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>110036927.94999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87129410.289999977</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>147532522.77999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>167484536.49000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>224939956.91</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>253649906.17000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>317583208.86000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>359301157.21000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>369389481.29000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>890482512.07000005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1563683314.6199999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>694205622.51000011</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>852759199.73999989</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>758516386.58000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>681220299.29999983</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>566378731.22000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>754304349.63</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>797786658.9599998</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="#,##0.00">
+                  <c:v>521979793</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="#,##0.00">
+                  <c:v>562573142.79999995</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="#,##0.00">
+                  <c:v>831597297.10000002</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="#,##0.00">
+                  <c:v>543057702.79999995</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="#,##0.00">
+                  <c:v>572489945.60000002</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="#,##0.00">
+                  <c:v>596667261.60000002</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="#,##0.00">
+                  <c:v>476374345.89999998</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="#,##0.00">
+                  <c:v>619684674.10000002</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="#,##0.00">
+                  <c:v>362264520.69999999</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="#,##0.00">
+                  <c:v>531278245.39999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D31-42AF-81F4-0E3A7FB83516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1524326400"/>
+        <c:axId val="1689131168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1524326400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689131168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1689131168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1524326400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7629664E-3E5A-4B1E-A385-35D518191218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,15 +1910,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A0039E-9132-4AC6-8D10-1A1CC4D53488}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -718,1066 +1926,1773 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>41640</v>
       </c>
       <c r="B2" s="1">
         <v>18035929.920000002</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="C2" s="1">
+        <v>6158330.7000000002</v>
+      </c>
+      <c r="D2">
+        <f>B2/C2</f>
+        <v>2.9287043516516582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>41671</v>
       </c>
       <c r="B3" s="1">
         <v>14270506.790000001</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="C3" s="1">
+        <v>3764578</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">B3/C3</f>
+        <v>3.7907321325258772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>41699</v>
       </c>
       <c r="B4" s="1">
         <v>31361136.219999999</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="C4" s="1">
+        <v>8473444</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>3.7011085716740442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>41730</v>
       </c>
       <c r="B5" s="1">
         <v>21476966.980000004</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="C5" s="1">
+        <v>6981821</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.076126841407135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>41760</v>
       </c>
       <c r="B6" s="1">
         <v>29101983.209999993</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="C6" s="1">
+        <v>8748888.5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.326363481486819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>41791</v>
       </c>
       <c r="B7" s="1">
         <v>17801520.34</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="C7" s="1">
+        <v>4805233.0999999996</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.704611195656669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>41821</v>
       </c>
       <c r="B8" s="1">
         <v>30280575.880000003</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="C8" s="1">
+        <v>8250040.1999999993</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.6703549493007324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>41852</v>
       </c>
       <c r="B9" s="1">
         <v>28787100.030000001</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="C9" s="1">
+        <v>7618897.4399999995</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.7783813546123812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>41883</v>
       </c>
       <c r="B10" s="1">
         <v>24055852.68</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="C10" s="1">
+        <v>7949263.2000000002</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3.0261738823794384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>41913</v>
       </c>
       <c r="B11" s="1">
         <v>28702139.780000001</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="C11" s="1">
+        <v>9443900.5399999991</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3.0392251229702176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>41944</v>
       </c>
       <c r="B12" s="1">
         <v>22672390.059999999</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="C12" s="1">
+        <v>6943328.5499999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>3.2653488736320853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>41974</v>
       </c>
       <c r="B13" s="1">
         <v>27738483.549999997</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="C13" s="1">
+        <v>9092205.9000000004</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>3.0507979972164945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>42005</v>
       </c>
       <c r="B14" s="1">
         <v>40045478.75</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="C14" s="2">
+        <v>10287208.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.8927449317275915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>42036</v>
       </c>
       <c r="B15" s="1">
         <v>20208883.039999999</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="C15" s="2">
+        <v>5233830</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.8612035622097007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>42064</v>
       </c>
       <c r="B16" s="1">
         <v>23836564.350000001</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="C16" s="2">
+        <v>6846211.8799999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.4817158404977677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>42095</v>
       </c>
       <c r="B17" s="1">
         <v>21740897.149999999</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="C17" s="2">
+        <v>5688339</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.8220115133785098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>42125</v>
       </c>
       <c r="B18" s="1">
         <v>23166947.690000001</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="C18" s="2">
+        <v>5315188</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4.3586318470767171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>42156</v>
       </c>
       <c r="B19" s="1">
         <v>18224925.550000001</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="C19" s="2">
+        <v>4777748</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.8145430755242846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>42186</v>
       </c>
       <c r="B20" s="1">
         <v>26124913.880000003</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="C20" s="2">
+        <v>8028066</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>3.2541976959332426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>42217</v>
       </c>
       <c r="B21" s="1">
         <v>45192681.670000002</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="C21" s="2">
+        <v>7363072.5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6.137747750005178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>42248</v>
       </c>
       <c r="B22" s="1">
         <v>22941217.440000001</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="C22" s="2">
+        <v>6640657.4000000004</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>3.4546605942959805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>42278</v>
       </c>
       <c r="B23" s="1">
         <v>26156972.739999998</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="C23" s="2">
+        <v>7223574.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3.621056685993894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>42309</v>
       </c>
       <c r="B24" s="1">
         <v>28295877.719999999</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="C24" s="2">
+        <v>6540793</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>4.326062255754004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>42339</v>
       </c>
       <c r="B25" s="1">
         <v>19485189.580000002</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="C25" s="2">
+        <v>6458997</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>3.0167516070993687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>42370</v>
       </c>
       <c r="B26" s="1">
         <v>37971511.230000004</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="C26" s="2">
+        <v>8942073.1999999993</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4.2463878768069137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>42401</v>
       </c>
       <c r="B27" s="1">
         <v>34216559.649999999</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="C27" s="2">
+        <v>6857130</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>4.9899243050664053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>42430</v>
       </c>
       <c r="B28" s="1">
         <v>41106680.910000004</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="C28" s="2">
+        <v>8117475.2000000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>5.0639736983736032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>42461</v>
       </c>
       <c r="B29" s="1">
         <v>55092140.049999997</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="C29" s="2">
+        <v>11254054.9</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>4.8953146700928212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>42491</v>
       </c>
       <c r="B30" s="1">
         <v>67510770.689999998</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="C30" s="2">
+        <v>11390203.300000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>5.9270909317307794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>42522</v>
       </c>
       <c r="B31" s="1">
         <v>53976102.710000001</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="C31" s="2">
+        <v>10753305.1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>5.019489562330004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>42552</v>
       </c>
       <c r="B32" s="1">
         <v>35852381.63000001</v>
       </c>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="C32" s="2">
+        <v>6920991.7599999998</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>5.1802375834644847</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>42583</v>
       </c>
       <c r="B33" s="1">
         <v>67858176.959999993</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="C33" s="2">
+        <v>8570427</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>7.9177124967052395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>42614</v>
       </c>
       <c r="B34" s="1">
         <v>76313763.879999995</v>
       </c>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="C34" s="2">
+        <v>9376843.8499999996</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>8.1385341486730631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>42644</v>
       </c>
       <c r="B35" s="1">
         <v>43748883.710000001</v>
       </c>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="C35" s="2">
+        <v>7780432.1799999997</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>5.6229374792905142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>42675</v>
       </c>
       <c r="B36" s="1">
         <v>80830249.269999981</v>
       </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="C36" s="2">
+        <v>11275704</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>7.1685323834325541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>42705</v>
       </c>
       <c r="B37" s="1">
         <v>44662931.079999991</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="C37" s="2">
+        <v>6475582.3100000005</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>6.8971297007573655</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>42736</v>
       </c>
       <c r="B38" s="1">
         <v>72440908.079999998</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="C38" s="2">
+        <v>8468242</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>8.5544211041677833</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>42767</v>
       </c>
       <c r="B39" s="1">
         <v>71070059.449999988</v>
       </c>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="C39" s="2">
+        <v>8923559</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>7.9643177626774238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>42795</v>
       </c>
       <c r="B40" s="1">
         <v>56191427.07</v>
       </c>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="C40" s="2">
+        <v>6863658</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>8.1868046266291241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>42826</v>
       </c>
       <c r="B41" s="1">
         <v>102118827.78000002</v>
       </c>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="C41" s="2">
+        <v>10656462</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>9.5828078568665678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>42856</v>
       </c>
       <c r="B42" s="1">
         <v>70580347.579999998</v>
       </c>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="C42" s="2">
+        <v>6494834</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>10.867151890256164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>42887</v>
       </c>
       <c r="B43" s="1">
         <v>50642988.569999993</v>
       </c>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="C43" s="2">
+        <v>4954653</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>10.221298760982856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>42917</v>
       </c>
       <c r="B44" s="1">
         <v>51295346.439999998</v>
       </c>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="C44" s="2">
+        <v>4817941</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>10.646736114037095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>42948</v>
       </c>
       <c r="B45" s="1">
         <v>72263048.170000002</v>
       </c>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="C45" s="2">
+        <v>6557276.7000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>11.020283492078351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>42979</v>
       </c>
       <c r="B46" s="1">
         <v>68335146.099999994</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="C46" s="2">
+        <v>6379136</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>10.712288639088428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>43009</v>
       </c>
       <c r="B47" s="1">
         <v>80777603.899999991</v>
       </c>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="C47" s="2">
+        <v>7129007.4000000004</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>11.330834626430601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>43040</v>
       </c>
       <c r="B48" s="1">
         <v>87212817.329999998</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="C48" s="2">
+        <v>8332199</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>10.466962842582133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>43070</v>
       </c>
       <c r="B49" s="1">
         <v>54384495.800000004</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="C49" s="2">
+        <v>4670275</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>11.644816590029496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>43101</v>
       </c>
       <c r="B50" s="1">
         <v>96818739.75999999</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="C50" s="2">
+        <v>8429037</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>11.486334650091107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>43132</v>
       </c>
       <c r="B51" s="1">
         <v>86687115.75</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="C51" s="2">
+        <v>6660614</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>13.014883575298013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>43160</v>
       </c>
       <c r="B52" s="1">
         <v>62492103.890000008</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="C52" s="2">
+        <v>4964484.5</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>12.587833417548188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>43191</v>
       </c>
       <c r="B53" s="1">
         <v>120890110.61000001</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="C53" s="2">
+        <v>9378357</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>12.890329362595176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>43221</v>
       </c>
       <c r="B54" s="1">
         <v>76048169.879999995</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="C54" s="2">
+        <v>5834200</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>13.034892509684274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>43252</v>
       </c>
       <c r="B55" s="1">
         <v>110413345.90000001</v>
       </c>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="C55" s="2">
+        <v>7994207.2599999998</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>13.811669163553812</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>43282</v>
       </c>
       <c r="B56" s="1">
         <v>94955645.450000003</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="C56" s="2">
+        <v>7184505</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>13.216727589444227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>43313</v>
       </c>
       <c r="B57" s="1">
         <v>111092734.29000001</v>
       </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="C57" s="2">
+        <v>8529572</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>13.024420720054888</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>43344</v>
       </c>
       <c r="B58" s="1">
         <v>63340798.479999997</v>
       </c>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="C58" s="2">
+        <v>4941992</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>12.816855729430561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>43374</v>
       </c>
       <c r="B59" s="1">
         <v>88978036.430000007</v>
       </c>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="C59" s="2">
+        <v>7301755</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>12.185842503617282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>43405</v>
       </c>
       <c r="B60" s="1">
         <v>86281203.680000022</v>
       </c>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="C60" s="2">
+        <v>6510737</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>13.252140837511947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
         <v>43435</v>
       </c>
       <c r="B61" s="1">
         <v>76979651.530000001</v>
       </c>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="C61" s="2">
+        <v>6161752.7000000002</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>12.493142012986013</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>43466</v>
       </c>
       <c r="B62" s="1">
         <v>120006066.13000003</v>
       </c>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="C62" s="2">
+        <v>8767566</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>13.6875007419391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
         <v>43497</v>
       </c>
       <c r="B63" s="1">
         <v>67010350.550000004</v>
       </c>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="C63" s="2">
+        <v>6175564.2000000002</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>10.850887203148176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>43525</v>
       </c>
       <c r="B64" s="1">
         <v>100183269.51000001</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="C64" s="2">
+        <v>8366812.0999999996</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>11.973887821623245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>43556</v>
       </c>
       <c r="B65" s="1">
         <v>62717637.870000005</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="C65" s="2">
+        <v>5733825</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>10.93818487135551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
         <v>43586</v>
       </c>
       <c r="B66" s="1">
         <v>82636387.24000001</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+      <c r="C66" s="2">
+        <v>9214740.8000000007</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>8.9678471737371073</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>43617</v>
       </c>
       <c r="B67" s="1">
         <v>77488103.799999997</v>
       </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="C67" s="2">
+        <v>8825062.6999999993</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D119" si="1">B67/C67</f>
+        <v>8.7804592935073433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
         <v>43647</v>
       </c>
       <c r="B68" s="1">
         <v>81794112.239999995</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="C68" s="2">
+        <v>10127072.68</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>8.0767774483869896</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <v>43678</v>
       </c>
       <c r="B69" s="1">
         <v>71104982.219999999</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="C69" s="2">
+        <v>8975203.1999999993</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>7.9223813250267145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <v>43709</v>
       </c>
       <c r="B70" s="1">
         <v>34654951.70000001</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+      <c r="C70" s="2">
+        <v>3949226.74</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>8.7751233295862896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <v>43739</v>
       </c>
       <c r="B71" s="1">
         <v>67274586.879999995</v>
       </c>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="C71" s="2">
+        <v>9244886.9100000001</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>7.2769507658585297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
         <v>43770</v>
       </c>
       <c r="B72" s="1">
         <v>65151005.579999998</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
+      <c r="C72" s="2">
+        <v>7868778.580000001</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>8.2796846953596699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <v>43800</v>
       </c>
       <c r="B73" s="1">
         <v>70619638.359999999</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="C73" s="2">
+        <v>8459482.9900000002</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>8.3479851479670621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
         <v>43831</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="6">
         <v>67947657.799999997</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="C74" s="2">
+        <v>7756962.3700000001</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>8.7595703780628238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
         <v>43862</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="6">
         <v>43667082.899999999</v>
       </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="C75" s="2">
+        <v>6949189.5699999994</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>6.283766252184714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
         <v>43891</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="6">
         <v>49482600.200000003</v>
       </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="C76" s="2">
+        <v>7606654.71</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>6.5051723900321488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <v>43922</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="6">
         <v>61918845.5</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="C77" s="2">
+        <v>11121950.93</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>5.5672647622443705</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
         <v>43952</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="6">
         <v>50853135.299999997</v>
       </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="C78" s="2">
+        <v>9181444.1499999985</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>5.5386859048747796</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
         <v>43983</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="6">
         <v>93115059.799999997</v>
       </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="C79" s="2">
+        <v>13616271.859999999</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>6.838513563579804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
         <v>44013</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="6">
         <v>41684660.600000001</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="C80" s="2">
+        <v>5000124.4800000004</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>8.3367245689051312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
         <v>44044</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="6">
         <v>53018816.700000003</v>
       </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="C81" s="2">
+        <v>9296613.3000000007</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>5.703024853147328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
         <v>44075</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="6">
         <v>48146388.100000001</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="C82" s="2">
+        <v>8614078.1099999994</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>5.5892676482823305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
         <v>44105</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="6">
         <v>62469539.5</v>
       </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="C83" s="2">
+        <v>11669780.390000001</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>5.3531032643537175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
         <v>44136</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="6">
         <v>37119270.799999997</v>
       </c>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="C84" s="2">
+        <v>7426311.2699999996</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>4.9983456726289361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
         <v>44166</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="6">
         <v>61320785.399999999</v>
       </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="C85" s="2">
+        <v>12087979.170000002</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>5.0728731856343847</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
         <v>44197</v>
       </c>
       <c r="B86" s="1">
         <v>64623450.100000001</v>
       </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="C86" s="2">
+        <v>12317014.1</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>5.2466815070058255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
         <v>44228</v>
       </c>
       <c r="B87" s="1">
         <v>40639187.109999992</v>
       </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="C87" s="2">
+        <v>7069596.0899999999</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>5.7484453981019437</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
         <v>44256</v>
       </c>
       <c r="B88" s="1">
         <v>46611088.289999999</v>
       </c>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="C88" s="2">
+        <v>9041001.8000000007</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>5.1555225096847117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
         <v>44287</v>
       </c>
       <c r="B89" s="1">
         <v>110974146.08999997</v>
       </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="C89" s="2">
+        <v>20802446.77</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>5.3346679511777442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
         <v>44317</v>
       </c>
       <c r="B90" s="1">
         <v>69254148.260000005</v>
       </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+      <c r="C90" s="2">
+        <v>11423367.530000001</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>6.0624984776271136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
         <v>44348</v>
       </c>
       <c r="B91" s="1">
         <v>78508074.260000005</v>
       </c>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="C91" s="2">
+        <v>10956115.75</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>7.1656849974408132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
         <v>44378</v>
       </c>
       <c r="B92" s="1">
         <v>110036927.94999999</v>
       </c>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="C92" s="2">
+        <v>14849640.109999999</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>7.4100737213085219</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
         <v>44409</v>
       </c>
       <c r="B93" s="1">
         <v>87129410.289999977</v>
       </c>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="C93" s="2">
+        <v>9964428.7200000007</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>8.7440447152900074</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
         <v>44440</v>
       </c>
       <c r="B94" s="1">
         <v>147532522.77999997</v>
       </c>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="C94" s="2">
+        <v>15579294.199999999</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>9.4697821920584815</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
         <v>44470</v>
       </c>
       <c r="B95" s="1">
         <v>167484536.49000004</v>
       </c>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="C95" s="2">
+        <v>12474357.380000001</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>13.426305771752711</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
         <v>44501</v>
       </c>
       <c r="B96" s="1">
         <v>224939956.91</v>
       </c>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="C96" s="2">
+        <v>14216620.039999999</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>15.822323187727257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
         <v>44531</v>
       </c>
       <c r="B97" s="1">
         <v>253649906.17000005</v>
       </c>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="C97" s="2">
+        <v>11462637.209999999</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>22.12840740948479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
         <v>44562</v>
       </c>
       <c r="B98" s="1">
         <v>317583208.86000001</v>
       </c>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+      <c r="C98" s="1">
+        <v>19577983</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>16.221446757819741</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>44593</v>
       </c>
       <c r="B99" s="1">
         <v>359301157.21000004</v>
       </c>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
+      <c r="C99" s="1">
+        <v>19041399.620000001</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>18.869472012583078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>44621</v>
       </c>
       <c r="B100" s="1">
         <v>369389481.29000002</v>
       </c>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="C100" s="1">
+        <v>13113998.440000001</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>28.167570934223779</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>44652</v>
       </c>
       <c r="B101" s="1">
         <v>890482512.07000005</v>
       </c>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="C101" s="1">
+        <v>19301579.280000001</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>46.135215111268344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
         <v>44682</v>
       </c>
       <c r="B102" s="1">
         <v>1563683314.6199999</v>
       </c>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
+      <c r="C102" s="1">
+        <v>27956239.609999999</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>55.933249121983756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
         <v>44713</v>
       </c>
       <c r="B103" s="1">
         <v>694205622.51000011</v>
       </c>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
+      <c r="C103" s="1">
+        <v>13565963.029999999</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>51.172601677803641</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
         <v>44743</v>
       </c>
       <c r="B104" s="1">
         <v>852759199.73999989</v>
       </c>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
+      <c r="C104" s="1">
+        <v>20321207.899999999</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>41.964001546384452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
         <v>44774</v>
       </c>
       <c r="B105" s="1">
         <v>758516386.58000004</v>
       </c>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
+      <c r="C105" s="1">
+        <v>16766825.109999999</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>45.239118414112212</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
         <v>44805</v>
       </c>
       <c r="B106" s="1">
         <v>681220299.29999983</v>
       </c>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
+      <c r="C106" s="1">
+        <v>18205871.32</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>37.417615851851458</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
         <v>44835</v>
       </c>
       <c r="B107" s="1">
         <v>566378731.22000003</v>
       </c>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
+      <c r="C107" s="1">
+        <v>14367665.140000001</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>39.420373853451323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
         <v>44866</v>
       </c>
       <c r="B108" s="1">
         <v>754304349.63</v>
       </c>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
+      <c r="C108" s="1">
+        <v>18324174.07</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>41.164439212839241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
         <v>44896</v>
       </c>
       <c r="B109" s="1">
         <v>797786658.9599998</v>
       </c>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="C109" s="1">
+        <v>19945980.530000001</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>39.997364770314441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
         <v>44927</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110" s="6">
         <v>521979793</v>
       </c>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
+      <c r="C110" s="3">
+        <v>13553745.339999998</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>38.511848932230279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
         <v>44958</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111" s="6">
         <v>562573142.79999995</v>
       </c>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="C111" s="3">
+        <v>17964496.32</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>31.315831670364357</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
         <v>44986</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112" s="6">
         <v>831597297.10000002</v>
       </c>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="C112" s="3">
+        <v>23546006.119999997</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>35.317976766923564</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
         <v>45017</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="6">
         <v>543057702.79999995</v>
       </c>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="C113" s="3">
+        <v>15756995.079999998</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>34.46454733550631</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
         <v>45047</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="6">
         <v>572489945.60000002</v>
       </c>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="C114" s="3">
+        <v>21378946.619999997</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>26.778211095977753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
         <v>45078</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="6">
         <v>596667261.60000002</v>
       </c>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="C115" s="3">
+        <v>18204363.179999996</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>32.776057898884446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
         <v>45108</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="6">
         <v>476374345.89999998</v>
       </c>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="C116" s="3">
+        <v>15944124.989999996</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>29.8777352911356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
         <v>45139</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="6">
         <v>619684674.10000002</v>
       </c>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="C117" s="3">
+        <v>20462357.710000001</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>30.284128685579507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
         <v>45170</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="6">
         <v>362264520.69999999</v>
       </c>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="7">
+      <c r="C118" s="3">
+        <v>13834486.049999999</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>26.185614658233003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B119" s="6">
         <v>531278245.39999998</v>
+      </c>
+      <c r="D119" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1785,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA7196-8A38-4E89-B481-AF5890D9A5E9}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1800,7 +3715,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>41640</v>
       </c>
       <c r="B2" s="1">
@@ -1808,7 +3723,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>41671</v>
       </c>
       <c r="B3" s="1">
@@ -1816,7 +3731,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>41699</v>
       </c>
       <c r="B4" s="1">
@@ -1824,7 +3739,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>41730</v>
       </c>
       <c r="B5" s="1">
@@ -1832,7 +3747,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>41760</v>
       </c>
       <c r="B6" s="1">
@@ -1840,7 +3755,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>41791</v>
       </c>
       <c r="B7" s="1">
@@ -1848,7 +3763,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>41821</v>
       </c>
       <c r="B8" s="1">
@@ -1856,7 +3771,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>41852</v>
       </c>
       <c r="B9" s="1">
@@ -1864,7 +3779,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>41883</v>
       </c>
       <c r="B10" s="1">
@@ -1872,7 +3787,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>41913</v>
       </c>
       <c r="B11" s="1">
@@ -1880,7 +3795,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>41944</v>
       </c>
       <c r="B12" s="1">
@@ -1888,7 +3803,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>41974</v>
       </c>
       <c r="B13" s="1">
@@ -1896,679 +3811,679 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>42005</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>10287208.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>42036</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>5233830</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>42064</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>6846211.8799999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>42095</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>5688339</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>42125</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>5315188</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>42156</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>4777748</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>42186</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>8028066</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>42217</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>7363072.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>42248</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>6640657.4000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>42278</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>7223574.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>42309</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>6540793</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>42339</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>6458997</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>42370</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>8942073.1999999993</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>42401</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>6857130</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>42430</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>8117475.2000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>42461</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>11254054.9</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>42491</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>11390203.300000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>42522</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>10753305.1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>42552</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>6920991.7599999998</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>42583</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>8570427</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>42614</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>9376843.8499999996</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>42644</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>7780432.1799999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>42675</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>11275704</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>42705</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>6475582.3100000005</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>42736</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>8468242</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>42767</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>8923559</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>42795</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>6863658</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>42826</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>10656462</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>42856</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>6494834</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42887</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>4954653</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>42917</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>4817941</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>42948</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>6557276.7000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>42979</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>6379136</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>43009</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>7129007.4000000004</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>43040</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>8332199</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>43070</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>4670275</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>43101</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>8429037</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>43132</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>6660614</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>43160</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>4964484.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>43191</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>9378357</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>43221</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>5834200</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>43252</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>7994207.2599999998</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>43282</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>7184505</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>43313</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>8529572</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>43344</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>4941992</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>43374</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>7301755</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>43405</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>6510737</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>43435</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>6161752.7000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>43466</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>8767566</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>43497</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>6175564.2000000002</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>43525</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>8366812.0999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>43556</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>5733825</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>43586</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>9214740.8000000007</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>43617</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>8825062.6999999993</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>43647</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>10127072.68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>43678</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>8975203.1999999993</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>43709</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>3949226.74</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>43739</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>9244886.9100000001</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>43770</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>7868778.580000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>43800</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>8459482.9900000002</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>43831</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>7756962.3700000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>43862</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>6949189.5699999994</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>43891</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>7606654.71</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>43922</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>11121950.93</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>43952</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>9181444.1499999985</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>43983</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>13616271.859999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>44013</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>5000124.4800000004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>44044</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>9296613.3000000007</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>44075</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>8614078.1099999994</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>44105</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>11669780.390000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>44136</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>7426311.2699999996</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>44166</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>12087979.170000002</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>44197</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>12317014.1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>44228</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>7069596.0899999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>44256</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>9041001.8000000007</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>44287</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>20802446.77</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>44317</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>11423367.530000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>44348</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>10956115.75</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>44378</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>14849640.109999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>44409</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>9964428.7200000007</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>44440</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>15579294.199999999</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>44470</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>12474357.380000001</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>44501</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>14216620.039999999</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>44531</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>11462637.209999999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>44562</v>
       </c>
       <c r="B98" s="1">
@@ -2576,7 +4491,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>44593</v>
       </c>
       <c r="B99" s="1">
@@ -2584,7 +4499,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>44621</v>
       </c>
       <c r="B100" s="1">
@@ -2592,7 +4507,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>44652</v>
       </c>
       <c r="B101" s="1">
@@ -2600,7 +4515,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>44682</v>
       </c>
       <c r="B102" s="1">
@@ -2608,7 +4523,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>44713</v>
       </c>
       <c r="B103" s="1">
@@ -2616,7 +4531,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>44743</v>
       </c>
       <c r="B104" s="1">
@@ -2624,7 +4539,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>44774</v>
       </c>
       <c r="B105" s="1">
@@ -2632,7 +4547,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>44805</v>
       </c>
       <c r="B106" s="1">
@@ -2640,7 +4555,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>44835</v>
       </c>
       <c r="B107" s="1">
@@ -2648,7 +4563,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>44866</v>
       </c>
       <c r="B108" s="1">
@@ -2656,7 +4571,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>44896</v>
       </c>
       <c r="B109" s="1">
@@ -2664,74 +4579,74 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>44927</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="3">
         <v>13553745.339999998</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>44958</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="3">
         <v>17964496.32</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>44986</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="3">
         <v>23546006.119999997</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>45017</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="3">
         <v>15756995.079999998</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>45047</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="3">
         <v>21378946.619999997</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>45078</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="3">
         <v>18204363.179999996</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>45108</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="3">
         <v>15944124.989999996</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>45139</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="3">
         <v>20462357.710000001</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>45170</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="3">
         <v>13834486.049999999</v>
       </c>
     </row>
@@ -2745,7 +4660,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,439 +4673,439 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>40238</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>70.027874999999995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>40330</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>70.027874999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>40422</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>70.027874999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>40513</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>70.027874999999995</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>40603</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>102.2015</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>40695</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>102.2015</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>40787</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>102.2015</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>40878</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>102.2015</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>40969</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>116.61525</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>41061</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>116.61525</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>41153</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>116.61525</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>41244</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>116.61525</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>41334</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>91.825043806442906</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>41426</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>91.825043806442906</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>41518</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>91.825043806442906</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>41609</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>91.825043806442906</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>41699</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>110.527025205553</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>41791</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>110.527025205553</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>41883</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>110.527025205553</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>41974</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>110.527025205553</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>42064</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>109.48925</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>42156</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>109.48925</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>42248</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>109.48925</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>42339</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>109.48925</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>42430</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>134.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>42522</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>134.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>42614</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>134.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>42705</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>134.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>42795</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>294.61349999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>42887</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>294.61349999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>42979</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>294.61349999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>43070</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>294.61349999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>43160</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>313.42012086348302</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>43252</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>339.202679358056</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>43344</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>407.74325716095399</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>43435</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>428.62304898283497</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>43525</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>402.39885976493201</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>43617</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>360.18172148735403</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>43709</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>379.153988829127</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>43800</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>379.33906448917202</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>43891</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>273.751250180846</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>43983</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>304.628893885639</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>44075</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>331.92020226041399</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44166</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>374.96173643762398</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>44256</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>433.49595886642402</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>44348</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>476.73261663654398</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>44440</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>512.36800000000005</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>44531</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>475.13499999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>44621</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>504.45699999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>44713</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>637.86099999999999</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>44805</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>685.43843478260897</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>44896</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>772.71656521739101</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>44986</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>778.35500000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>45078</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="9">
         <v>848.35900000000004</v>
       </c>
     </row>
@@ -3201,10 +5116,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5E621-A7B8-4B1C-9A0F-3ADF66FA2E12}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3217,440 +5132,448 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>40238</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>77.483000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>40330</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>94.692999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>40422</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>101.34699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>40513</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>53.341999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>40603</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>101.30500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>40695</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>96.423699999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>40787</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>108.71615</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>40878</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>95.090999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>40969</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>143.05491000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>41061</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>114.25875000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>41153</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>124.63388999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>41244</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>118.95099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>41334</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>87.549000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>41426</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>154.745</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>41518</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>69.808999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>41609</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>93.016000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>41699</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>68.242000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>41791</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>110.998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>41883</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>98.152000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>41974</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>167.154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>42064</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>117.108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>42156</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>106.66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>42248</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>169.30600000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>42339</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>46.44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>42430</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>112.768</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>42522</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>137.303</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>42614</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>122.422</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>42705</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>149.68799999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>42795</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>197.61623</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>42887</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>444.33004499999998</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>42979</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>443.59343749999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>43070</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>621.07889750000004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>43160</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>535.00334250000003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>43252</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>538.55034000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>43344</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>472.00327750000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>43435</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>420.35548999999997</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>43525</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>405.89135299999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>43617</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>398.65753999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>43709</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>407.5017105</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>43800</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>376.21242000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>43891</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>363.39028000000002</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>43983</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>312.69251000000003</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>44075</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>360.40602200000001</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44166</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>440.751215</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>44256</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>392.93100149999998</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>44348</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>555.49706300000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>44440</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>549.58311100000003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>44531</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>502.60823499999998</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>44621</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>477.31236200000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>44713</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>718.07453480000004</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>44805</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>690.92781660000003</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>44896</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>816.80843276999997</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>44986</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>922.56311628000003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>45078</v>
       </c>
-      <c r="B55" s="10">
-        <v>858.13027179999995</v>
+      <c r="B55" s="9">
+        <v>5523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B56" s="9">
+        <v>5523</v>
       </c>
     </row>
   </sheetData>
@@ -3660,10 +5583,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CE6849-87DF-4E28-99DE-F228713F2FB0}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3671,444 +5594,617 @@
     <col min="1" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>40238</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>21.716777</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="C2" s="9">
+        <v>77.483000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>40330</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>26.077617</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="C3" s="9">
+        <v>94.692999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>40422</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>27.66628781</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="C4" s="9">
+        <v>101.34699999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>40513</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>16.721578000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+      <c r="C5" s="9">
+        <v>53.341999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>40603</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>29.212876999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="C6" s="9">
+        <v>101.30500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>40695</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>29.716937160000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="C7" s="9">
+        <v>96.423699999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>40787</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>31.224095949999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="C8" s="9">
+        <v>108.71615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>40878</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>27.173378790000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
+      <c r="C9" s="9">
+        <v>95.090999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>40969</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>44.613789560000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="C10" s="9">
+        <v>143.05491000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>41061</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>35.402556760000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="C11" s="9">
+        <v>114.25875000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>41153</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>40.680747099999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="C12" s="9">
+        <v>124.63388999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>41244</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>41.492288469999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="C13" s="9">
+        <v>118.95099999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>41334</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>32.08433471</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="C14" s="9">
+        <v>87.549000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>41426</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>64.529314069999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+      <c r="C15" s="9">
+        <v>154.745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>41518</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>31.50990835</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="C16" s="9">
+        <v>69.808999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>41609</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>41.162987289999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+      <c r="C17" s="9">
+        <v>93.016000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>41699</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>32.743884000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
+      <c r="C18" s="9">
+        <v>68.242000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>41791</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>45.147598000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="C19" s="9">
+        <v>110.998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>41883</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>41.524011999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
+      <c r="C20" s="9">
+        <v>98.152000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>41974</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>82.102267999999995</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="C21" s="9">
+        <v>167.154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>42064</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="9">
         <v>63.922114000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="C22" s="9">
+        <v>117.108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>42156</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>58.325992999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="C23" s="9">
+        <v>106.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>42248</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>91.582151999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
+      <c r="C24" s="9">
+        <v>169.30600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>42339</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="9">
         <v>26.348013000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="C25" s="9">
+        <v>46.44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
         <v>42430</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>67.054581999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
+      <c r="C26" s="9">
+        <v>112.768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
         <v>42522</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>75.736793000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
+      <c r="C27" s="9">
+        <v>137.303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>42614</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>66.685486999999995</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
+      <c r="C28" s="9">
+        <v>122.422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>42705</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>84.382779999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
+      <c r="C29" s="9">
+        <v>149.68799999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>42795</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>134.485433</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
+      <c r="C30" s="9">
+        <v>197.61623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
         <v>42887</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>309.91839499999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="C31" s="9">
+        <v>444.33004499999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
         <v>42979</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>305.88753000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
+      <c r="C32" s="9">
+        <v>443.59343749999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>43070</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>448.23720900000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
+      <c r="C33" s="9">
+        <v>621.07889750000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>43160</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>448.96411000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
+      <c r="C34" s="9">
+        <v>535.00334250000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>43252</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="9">
         <v>495.37811799999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
+      <c r="C35" s="9">
+        <v>538.55034000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>43344</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>461.28775999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
+      <c r="C36" s="9">
+        <v>472.00327750000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
         <v>43435</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>457.37945100000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
+      <c r="C37" s="9">
+        <v>420.35548999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
         <v>43525</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>391.29296499999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
+      <c r="C38" s="10">
+        <v>405.89135299999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>43617</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>351.14332300000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
+      <c r="C39" s="9">
+        <v>398.65753999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>43709</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>326.05080600000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
+      <c r="C40" s="9">
+        <v>407.5017105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
         <v>43800</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>248.86644699999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="9">
+      <c r="C41" s="9">
+        <v>376.21242000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
         <v>43891</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>234.55637300000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="9">
+      <c r="C42" s="9">
+        <v>363.39028000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
         <v>43983</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>189.18253200000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
+      <c r="C43" s="9">
+        <v>312.69251000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
         <v>44075</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>178.09383199999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
+      <c r="C44" s="9">
+        <v>360.40602200000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
         <v>44166</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>220.93807799999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9">
+      <c r="C45" s="9">
+        <v>440.751215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
         <v>44256</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>193.96520799999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9">
+      <c r="C46" s="9">
+        <v>392.93100149999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
         <v>44348</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>314.58914099999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
+      <c r="C47" s="9">
+        <v>555.49706300000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>44440</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>487.11267099999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9">
+      <c r="C48" s="9">
+        <v>549.58311100000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
         <v>44531</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>637.85230300000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9">
+      <c r="C49" s="9">
+        <v>502.60823499999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
         <v>44621</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>1185.6715380000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="9">
+      <c r="C50" s="9">
+        <v>477.31236200000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
         <v>44713</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>2588.6723849999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="9">
+      <c r="C51" s="9">
+        <v>718.07453480000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
         <v>44805</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>3482.9113609999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="9">
+      <c r="C52" s="9">
+        <v>690.92781660000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
         <v>44896</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>4867.6931880000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9">
+      <c r="C53" s="9">
+        <v>816.80843276999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
         <v>44986</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B54" s="9">
         <v>6236.3483910000004</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9">
+      <c r="C54" s="9">
+        <v>922.56311628000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
         <v>45078</v>
       </c>
-      <c r="B55" s="10">
-        <v>5560.3071870000003</v>
+      <c r="B55" s="9">
+        <v>5523</v>
+      </c>
+      <c r="C55" s="9">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>45170</v>
+      </c>
+      <c r="B56" s="11">
+        <v>5523</v>
+      </c>
+      <c r="C56">
+        <v>834</v>
       </c>
     </row>
   </sheetData>

--- a/litio_aus_chl.xlsx
+++ b/litio_aus_chl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e22b8e11b397fbcd/Escritorio/Master Data Science/Tercer Semestre/Financial Data/proyect/LITIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{751B1944-F704-4E0B-8466-B74E0B6F0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FF61B9-775B-45D2-B092-E9843B6F9F6B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{751B1944-F704-4E0B-8466-B74E0B6F0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDB5A0D-F806-4D56-8906-A7AF3FAAF0EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15216" firstSheet="4" activeTab="4" xr2:uid="{E5CF665B-3C0D-4A6C-A74A-159111E0C762}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15216" activeTab="4" xr2:uid="{E5CF665B-3C0D-4A6C-A74A-159111E0C762}"/>
   </bookViews>
   <sheets>
     <sheet name="lit_chl_prod" sheetId="2" r:id="rId1"/>
@@ -164,1210 +164,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>lit_chl_exp_dolar!$B$2:$B$119</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0</c:formatCode>
-                <c:ptCount val="118"/>
-                <c:pt idx="0">
-                  <c:v>18035929.920000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14270506.790000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31361136.219999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21476966.980000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29101983.209999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17801520.34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30280575.880000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28787100.030000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24055852.68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28702139.780000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22672390.059999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27738483.549999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40045478.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20208883.039999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23836564.350000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21740897.149999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23166947.690000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18224925.550000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26124913.880000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45192681.670000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22941217.440000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26156972.739999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28295877.719999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19485189.580000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37971511.230000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34216559.649999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41106680.910000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>55092140.049999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>67510770.689999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53976102.710000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35852381.63000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67858176.959999993</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>76313763.879999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43748883.710000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>80830249.269999981</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44662931.079999991</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>72440908.079999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71070059.449999988</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56191427.07</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>102118827.78000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>70580347.579999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50642988.569999993</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>51295346.439999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>72263048.170000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>68335146.099999994</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>80777603.899999991</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>87212817.329999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>54384495.800000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>96818739.75999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>86687115.75</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>62492103.890000008</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>120890110.61000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>76048169.879999995</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>110413345.90000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>94955645.450000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>111092734.29000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>63340798.479999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>88978036.430000007</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>86281203.680000022</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>76979651.530000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>120006066.13000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>67010350.550000004</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>100183269.51000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>62717637.870000005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>82636387.24000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>77488103.799999997</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>81794112.239999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>71104982.219999999</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>34654951.70000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>67274586.879999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>65151005.579999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>70619638.359999999</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="#,##0.00">
-                  <c:v>67947657.799999997</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="#,##0.00">
-                  <c:v>43667082.899999999</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="#,##0.00">
-                  <c:v>49482600.200000003</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="#,##0.00">
-                  <c:v>61918845.5</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="#,##0.00">
-                  <c:v>50853135.299999997</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="#,##0.00">
-                  <c:v>93115059.799999997</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="#,##0.00">
-                  <c:v>41684660.600000001</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="#,##0.00">
-                  <c:v>53018816.700000003</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="#,##0.00">
-                  <c:v>48146388.100000001</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="#,##0.00">
-                  <c:v>62469539.5</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="#,##0.00">
-                  <c:v>37119270.799999997</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="#,##0.00">
-                  <c:v>61320785.399999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>64623450.100000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>40639187.109999992</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>46611088.289999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>110974146.08999997</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>69254148.260000005</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>78508074.260000005</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>110036927.94999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>87129410.289999977</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>147532522.77999997</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>167484536.49000004</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>224939956.91</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>253649906.17000005</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>317583208.86000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>359301157.21000004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>369389481.29000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>890482512.07000005</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1563683314.6199999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>694205622.51000011</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>852759199.73999989</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>758516386.58000004</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>681220299.29999983</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>566378731.22000003</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>754304349.63</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>797786658.9599998</c:v>
-                </c:pt>
-                <c:pt idx="108" formatCode="#,##0.00">
-                  <c:v>521979793</c:v>
-                </c:pt>
-                <c:pt idx="109" formatCode="#,##0.00">
-                  <c:v>562573142.79999995</c:v>
-                </c:pt>
-                <c:pt idx="110" formatCode="#,##0.00">
-                  <c:v>831597297.10000002</c:v>
-                </c:pt>
-                <c:pt idx="111" formatCode="#,##0.00">
-                  <c:v>543057702.79999995</c:v>
-                </c:pt>
-                <c:pt idx="112" formatCode="#,##0.00">
-                  <c:v>572489945.60000002</c:v>
-                </c:pt>
-                <c:pt idx="113" formatCode="#,##0.00">
-                  <c:v>596667261.60000002</c:v>
-                </c:pt>
-                <c:pt idx="114" formatCode="#,##0.00">
-                  <c:v>476374345.89999998</c:v>
-                </c:pt>
-                <c:pt idx="115" formatCode="#,##0.00">
-                  <c:v>619684674.10000002</c:v>
-                </c:pt>
-                <c:pt idx="116" formatCode="#,##0.00">
-                  <c:v>362264520.69999999</c:v>
-                </c:pt>
-                <c:pt idx="117" formatCode="#,##0.00">
-                  <c:v>531278245.39999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5D31-42AF-81F4-0E3A7FB83516}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1524326400"/>
-        <c:axId val="1689131168"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1524326400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1689131168"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1689131168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1524326400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7629664E-3E5A-4B1E-A385-35D518191218}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1910,15 +706,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A0039E-9132-4AC6-8D10-1A1CC4D53488}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1926,1773 +722,949 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>41640</v>
       </c>
       <c r="B2" s="1">
         <v>18035929.920000002</v>
       </c>
-      <c r="C2" s="1">
-        <v>6158330.7000000002</v>
-      </c>
-      <c r="D2">
-        <f>B2/C2</f>
-        <v>2.9287043516516582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>41671</v>
       </c>
       <c r="B3" s="1">
         <v>14270506.790000001</v>
       </c>
-      <c r="C3" s="1">
-        <v>3764578</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">B3/C3</f>
-        <v>3.7907321325258772</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>41699</v>
       </c>
       <c r="B4" s="1">
         <v>31361136.219999999</v>
       </c>
-      <c r="C4" s="1">
-        <v>8473444</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3.7011085716740442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>41730</v>
       </c>
       <c r="B5" s="1">
         <v>21476966.980000004</v>
       </c>
-      <c r="C5" s="1">
-        <v>6981821</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3.076126841407135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>41760</v>
       </c>
       <c r="B6" s="1">
         <v>29101983.209999993</v>
       </c>
-      <c r="C6" s="1">
-        <v>8748888.5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>3.326363481486819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>41791</v>
       </c>
       <c r="B7" s="1">
         <v>17801520.34</v>
       </c>
-      <c r="C7" s="1">
-        <v>4805233.0999999996</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>3.704611195656669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>41821</v>
       </c>
       <c r="B8" s="1">
         <v>30280575.880000003</v>
       </c>
-      <c r="C8" s="1">
-        <v>8250040.1999999993</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>3.6703549493007324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>41852</v>
       </c>
       <c r="B9" s="1">
         <v>28787100.030000001</v>
       </c>
-      <c r="C9" s="1">
-        <v>7618897.4399999995</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.7783813546123812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>41883</v>
       </c>
       <c r="B10" s="1">
         <v>24055852.68</v>
       </c>
-      <c r="C10" s="1">
-        <v>7949263.2000000002</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>3.0261738823794384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>41913</v>
       </c>
       <c r="B11" s="1">
         <v>28702139.780000001</v>
       </c>
-      <c r="C11" s="1">
-        <v>9443900.5399999991</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3.0392251229702176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>41944</v>
       </c>
       <c r="B12" s="1">
         <v>22672390.059999999</v>
       </c>
-      <c r="C12" s="1">
-        <v>6943328.5499999998</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3.2653488736320853</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>41974</v>
       </c>
       <c r="B13" s="1">
         <v>27738483.549999997</v>
       </c>
-      <c r="C13" s="1">
-        <v>9092205.9000000004</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>3.0507979972164945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>42005</v>
       </c>
       <c r="B14" s="1">
         <v>40045478.75</v>
       </c>
-      <c r="C14" s="2">
-        <v>10287208.5</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>3.8927449317275915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>42036</v>
       </c>
       <c r="B15" s="1">
         <v>20208883.039999999</v>
       </c>
-      <c r="C15" s="2">
-        <v>5233830</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>3.8612035622097007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>42064</v>
       </c>
       <c r="B16" s="1">
         <v>23836564.350000001</v>
       </c>
-      <c r="C16" s="2">
-        <v>6846211.8799999999</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3.4817158404977677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>42095</v>
       </c>
       <c r="B17" s="1">
         <v>21740897.149999999</v>
       </c>
-      <c r="C17" s="2">
-        <v>5688339</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.8220115133785098</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>42125</v>
       </c>
       <c r="B18" s="1">
         <v>23166947.690000001</v>
       </c>
-      <c r="C18" s="2">
-        <v>5315188</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>4.3586318470767171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>42156</v>
       </c>
       <c r="B19" s="1">
         <v>18224925.550000001</v>
       </c>
-      <c r="C19" s="2">
-        <v>4777748</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>3.8145430755242846</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>42186</v>
       </c>
       <c r="B20" s="1">
         <v>26124913.880000003</v>
       </c>
-      <c r="C20" s="2">
-        <v>8028066</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>3.2541976959332426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>42217</v>
       </c>
       <c r="B21" s="1">
         <v>45192681.670000002</v>
       </c>
-      <c r="C21" s="2">
-        <v>7363072.5</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>6.137747750005178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>42248</v>
       </c>
       <c r="B22" s="1">
         <v>22941217.440000001</v>
       </c>
-      <c r="C22" s="2">
-        <v>6640657.4000000004</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>3.4546605942959805</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>42278</v>
       </c>
       <c r="B23" s="1">
         <v>26156972.739999998</v>
       </c>
-      <c r="C23" s="2">
-        <v>7223574.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>3.621056685993894</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>42309</v>
       </c>
       <c r="B24" s="1">
         <v>28295877.719999999</v>
       </c>
-      <c r="C24" s="2">
-        <v>6540793</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>4.326062255754004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>42339</v>
       </c>
       <c r="B25" s="1">
         <v>19485189.580000002</v>
       </c>
-      <c r="C25" s="2">
-        <v>6458997</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>3.0167516070993687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>42370</v>
       </c>
       <c r="B26" s="1">
         <v>37971511.230000004</v>
       </c>
-      <c r="C26" s="2">
-        <v>8942073.1999999993</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>4.2463878768069137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>42401</v>
       </c>
       <c r="B27" s="1">
         <v>34216559.649999999</v>
       </c>
-      <c r="C27" s="2">
-        <v>6857130</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>4.9899243050664053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>42430</v>
       </c>
       <c r="B28" s="1">
         <v>41106680.910000004</v>
       </c>
-      <c r="C28" s="2">
-        <v>8117475.2000000002</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>5.0639736983736032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>42461</v>
       </c>
       <c r="B29" s="1">
         <v>55092140.049999997</v>
       </c>
-      <c r="C29" s="2">
-        <v>11254054.9</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>4.8953146700928212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>42491</v>
       </c>
       <c r="B30" s="1">
         <v>67510770.689999998</v>
       </c>
-      <c r="C30" s="2">
-        <v>11390203.300000001</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>5.9270909317307794</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>42522</v>
       </c>
       <c r="B31" s="1">
         <v>53976102.710000001</v>
       </c>
-      <c r="C31" s="2">
-        <v>10753305.1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>5.019489562330004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>42552</v>
       </c>
       <c r="B32" s="1">
         <v>35852381.63000001</v>
       </c>
-      <c r="C32" s="2">
-        <v>6920991.7599999998</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>5.1802375834644847</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>42583</v>
       </c>
       <c r="B33" s="1">
         <v>67858176.959999993</v>
       </c>
-      <c r="C33" s="2">
-        <v>8570427</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>7.9177124967052395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>42614</v>
       </c>
       <c r="B34" s="1">
         <v>76313763.879999995</v>
       </c>
-      <c r="C34" s="2">
-        <v>9376843.8499999996</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>8.1385341486730631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>42644</v>
       </c>
       <c r="B35" s="1">
         <v>43748883.710000001</v>
       </c>
-      <c r="C35" s="2">
-        <v>7780432.1799999997</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>5.6229374792905142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>42675</v>
       </c>
       <c r="B36" s="1">
         <v>80830249.269999981</v>
       </c>
-      <c r="C36" s="2">
-        <v>11275704</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>7.1685323834325541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>42705</v>
       </c>
       <c r="B37" s="1">
         <v>44662931.079999991</v>
       </c>
-      <c r="C37" s="2">
-        <v>6475582.3100000005</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>6.8971297007573655</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>42736</v>
       </c>
       <c r="B38" s="1">
         <v>72440908.079999998</v>
       </c>
-      <c r="C38" s="2">
-        <v>8468242</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>8.5544211041677833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>42767</v>
       </c>
       <c r="B39" s="1">
         <v>71070059.449999988</v>
       </c>
-      <c r="C39" s="2">
-        <v>8923559</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>7.9643177626774238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>42795</v>
       </c>
       <c r="B40" s="1">
         <v>56191427.07</v>
       </c>
-      <c r="C40" s="2">
-        <v>6863658</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>8.1868046266291241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>42826</v>
       </c>
       <c r="B41" s="1">
         <v>102118827.78000002</v>
       </c>
-      <c r="C41" s="2">
-        <v>10656462</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>9.5828078568665678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>42856</v>
       </c>
       <c r="B42" s="1">
         <v>70580347.579999998</v>
       </c>
-      <c r="C42" s="2">
-        <v>6494834</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>10.867151890256164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>42887</v>
       </c>
       <c r="B43" s="1">
         <v>50642988.569999993</v>
       </c>
-      <c r="C43" s="2">
-        <v>4954653</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>10.221298760982856</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>42917</v>
       </c>
       <c r="B44" s="1">
         <v>51295346.439999998</v>
       </c>
-      <c r="C44" s="2">
-        <v>4817941</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>10.646736114037095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>42948</v>
       </c>
       <c r="B45" s="1">
         <v>72263048.170000002</v>
       </c>
-      <c r="C45" s="2">
-        <v>6557276.7000000002</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>11.020283492078351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>42979</v>
       </c>
       <c r="B46" s="1">
         <v>68335146.099999994</v>
       </c>
-      <c r="C46" s="2">
-        <v>6379136</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>10.712288639088428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43009</v>
       </c>
       <c r="B47" s="1">
         <v>80777603.899999991</v>
       </c>
-      <c r="C47" s="2">
-        <v>7129007.4000000004</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>11.330834626430601</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43040</v>
       </c>
       <c r="B48" s="1">
         <v>87212817.329999998</v>
       </c>
-      <c r="C48" s="2">
-        <v>8332199</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>10.466962842582133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43070</v>
       </c>
       <c r="B49" s="1">
         <v>54384495.800000004</v>
       </c>
-      <c r="C49" s="2">
-        <v>4670275</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>11.644816590029496</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43101</v>
       </c>
       <c r="B50" s="1">
         <v>96818739.75999999</v>
       </c>
-      <c r="C50" s="2">
-        <v>8429037</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>11.486334650091107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>43132</v>
       </c>
       <c r="B51" s="1">
         <v>86687115.75</v>
       </c>
-      <c r="C51" s="2">
-        <v>6660614</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>13.014883575298013</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>43160</v>
       </c>
       <c r="B52" s="1">
         <v>62492103.890000008</v>
       </c>
-      <c r="C52" s="2">
-        <v>4964484.5</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>12.587833417548188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>43191</v>
       </c>
       <c r="B53" s="1">
         <v>120890110.61000001</v>
       </c>
-      <c r="C53" s="2">
-        <v>9378357</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>12.890329362595176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43221</v>
       </c>
       <c r="B54" s="1">
         <v>76048169.879999995</v>
       </c>
-      <c r="C54" s="2">
-        <v>5834200</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>13.034892509684274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43252</v>
       </c>
       <c r="B55" s="1">
         <v>110413345.90000001</v>
       </c>
-      <c r="C55" s="2">
-        <v>7994207.2599999998</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>13.811669163553812</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43282</v>
       </c>
       <c r="B56" s="1">
         <v>94955645.450000003</v>
       </c>
-      <c r="C56" s="2">
-        <v>7184505</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>13.216727589444227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43313</v>
       </c>
       <c r="B57" s="1">
         <v>111092734.29000001</v>
       </c>
-      <c r="C57" s="2">
-        <v>8529572</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>13.024420720054888</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43344</v>
       </c>
       <c r="B58" s="1">
         <v>63340798.479999997</v>
       </c>
-      <c r="C58" s="2">
-        <v>4941992</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>12.816855729430561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43374</v>
       </c>
       <c r="B59" s="1">
         <v>88978036.430000007</v>
       </c>
-      <c r="C59" s="2">
-        <v>7301755</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>12.185842503617282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43405</v>
       </c>
       <c r="B60" s="1">
         <v>86281203.680000022</v>
       </c>
-      <c r="C60" s="2">
-        <v>6510737</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>13.252140837511947</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>43435</v>
       </c>
       <c r="B61" s="1">
         <v>76979651.530000001</v>
       </c>
-      <c r="C61" s="2">
-        <v>6161752.7000000002</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>12.493142012986013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>43466</v>
       </c>
       <c r="B62" s="1">
         <v>120006066.13000003</v>
       </c>
-      <c r="C62" s="2">
-        <v>8767566</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>13.6875007419391</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>43497</v>
       </c>
       <c r="B63" s="1">
         <v>67010350.550000004</v>
       </c>
-      <c r="C63" s="2">
-        <v>6175564.2000000002</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>10.850887203148176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>43525</v>
       </c>
       <c r="B64" s="1">
         <v>100183269.51000001</v>
       </c>
-      <c r="C64" s="2">
-        <v>8366812.0999999996</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>11.973887821623245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>43556</v>
       </c>
       <c r="B65" s="1">
         <v>62717637.870000005</v>
       </c>
-      <c r="C65" s="2">
-        <v>5733825</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>10.93818487135551</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43586</v>
       </c>
       <c r="B66" s="1">
         <v>82636387.24000001</v>
       </c>
-      <c r="C66" s="2">
-        <v>9214740.8000000007</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>8.9678471737371073</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43617</v>
       </c>
       <c r="B67" s="1">
         <v>77488103.799999997</v>
       </c>
-      <c r="C67" s="2">
-        <v>8825062.6999999993</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D119" si="1">B67/C67</f>
-        <v>8.7804592935073433</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43647</v>
       </c>
       <c r="B68" s="1">
         <v>81794112.239999995</v>
       </c>
-      <c r="C68" s="2">
-        <v>10127072.68</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="1"/>
-        <v>8.0767774483869896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43678</v>
       </c>
       <c r="B69" s="1">
         <v>71104982.219999999</v>
       </c>
-      <c r="C69" s="2">
-        <v>8975203.1999999993</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="1"/>
-        <v>7.9223813250267145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43709</v>
       </c>
       <c r="B70" s="1">
         <v>34654951.70000001</v>
       </c>
-      <c r="C70" s="2">
-        <v>3949226.74</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>8.7751233295862896</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>43739</v>
       </c>
       <c r="B71" s="1">
         <v>67274586.879999995</v>
       </c>
-      <c r="C71" s="2">
-        <v>9244886.9100000001</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="1"/>
-        <v>7.2769507658585297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>43770</v>
       </c>
       <c r="B72" s="1">
         <v>65151005.579999998</v>
       </c>
-      <c r="C72" s="2">
-        <v>7868778.580000001</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="1"/>
-        <v>8.2796846953596699</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>43800</v>
       </c>
       <c r="B73" s="1">
         <v>70619638.359999999</v>
       </c>
-      <c r="C73" s="2">
-        <v>8459482.9900000002</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="1"/>
-        <v>8.3479851479670621</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>43831</v>
       </c>
       <c r="B74" s="6">
         <v>67947657.799999997</v>
       </c>
-      <c r="C74" s="2">
-        <v>7756962.3700000001</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="1"/>
-        <v>8.7595703780628238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>43862</v>
       </c>
       <c r="B75" s="6">
         <v>43667082.899999999</v>
       </c>
-      <c r="C75" s="2">
-        <v>6949189.5699999994</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="1"/>
-        <v>6.283766252184714</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43891</v>
       </c>
       <c r="B76" s="6">
         <v>49482600.200000003</v>
       </c>
-      <c r="C76" s="2">
-        <v>7606654.71</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="1"/>
-        <v>6.5051723900321488</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>43922</v>
       </c>
       <c r="B77" s="6">
         <v>61918845.5</v>
       </c>
-      <c r="C77" s="2">
-        <v>11121950.93</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="1"/>
-        <v>5.5672647622443705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>43952</v>
       </c>
       <c r="B78" s="6">
         <v>50853135.299999997</v>
       </c>
-      <c r="C78" s="2">
-        <v>9181444.1499999985</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="1"/>
-        <v>5.5386859048747796</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>43983</v>
       </c>
       <c r="B79" s="6">
         <v>93115059.799999997</v>
       </c>
-      <c r="C79" s="2">
-        <v>13616271.859999999</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="1"/>
-        <v>6.838513563579804</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>44013</v>
       </c>
       <c r="B80" s="6">
         <v>41684660.600000001</v>
       </c>
-      <c r="C80" s="2">
-        <v>5000124.4800000004</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="1"/>
-        <v>8.3367245689051312</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>44044</v>
       </c>
       <c r="B81" s="6">
         <v>53018816.700000003</v>
       </c>
-      <c r="C81" s="2">
-        <v>9296613.3000000007</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="1"/>
-        <v>5.703024853147328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>44075</v>
       </c>
       <c r="B82" s="6">
         <v>48146388.100000001</v>
       </c>
-      <c r="C82" s="2">
-        <v>8614078.1099999994</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="1"/>
-        <v>5.5892676482823305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>44105</v>
       </c>
       <c r="B83" s="6">
         <v>62469539.5</v>
       </c>
-      <c r="C83" s="2">
-        <v>11669780.390000001</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="1"/>
-        <v>5.3531032643537175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>44136</v>
       </c>
       <c r="B84" s="6">
         <v>37119270.799999997</v>
       </c>
-      <c r="C84" s="2">
-        <v>7426311.2699999996</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="1"/>
-        <v>4.9983456726289361</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>44166</v>
       </c>
       <c r="B85" s="6">
         <v>61320785.399999999</v>
       </c>
-      <c r="C85" s="2">
-        <v>12087979.170000002</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="1"/>
-        <v>5.0728731856343847</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>44197</v>
       </c>
       <c r="B86" s="1">
         <v>64623450.100000001</v>
       </c>
-      <c r="C86" s="2">
-        <v>12317014.1</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="1"/>
-        <v>5.2466815070058255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>44228</v>
       </c>
       <c r="B87" s="1">
         <v>40639187.109999992</v>
       </c>
-      <c r="C87" s="2">
-        <v>7069596.0899999999</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="1"/>
-        <v>5.7484453981019437</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>44256</v>
       </c>
       <c r="B88" s="1">
         <v>46611088.289999999</v>
       </c>
-      <c r="C88" s="2">
-        <v>9041001.8000000007</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="1"/>
-        <v>5.1555225096847117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>44287</v>
       </c>
       <c r="B89" s="1">
         <v>110974146.08999997</v>
       </c>
-      <c r="C89" s="2">
-        <v>20802446.77</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="1"/>
-        <v>5.3346679511777442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>44317</v>
       </c>
       <c r="B90" s="1">
         <v>69254148.260000005</v>
       </c>
-      <c r="C90" s="2">
-        <v>11423367.530000001</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="1"/>
-        <v>6.0624984776271136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>44348</v>
       </c>
       <c r="B91" s="1">
         <v>78508074.260000005</v>
       </c>
-      <c r="C91" s="2">
-        <v>10956115.75</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="1"/>
-        <v>7.1656849974408132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>44378</v>
       </c>
       <c r="B92" s="1">
         <v>110036927.94999999</v>
       </c>
-      <c r="C92" s="2">
-        <v>14849640.109999999</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="1"/>
-        <v>7.4100737213085219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>44409</v>
       </c>
       <c r="B93" s="1">
         <v>87129410.289999977</v>
       </c>
-      <c r="C93" s="2">
-        <v>9964428.7200000007</v>
-      </c>
-      <c r="D93">
-        <f t="shared" si="1"/>
-        <v>8.7440447152900074</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>44440</v>
       </c>
       <c r="B94" s="1">
         <v>147532522.77999997</v>
       </c>
-      <c r="C94" s="2">
-        <v>15579294.199999999</v>
-      </c>
-      <c r="D94">
-        <f t="shared" si="1"/>
-        <v>9.4697821920584815</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>44470</v>
       </c>
       <c r="B95" s="1">
         <v>167484536.49000004</v>
       </c>
-      <c r="C95" s="2">
-        <v>12474357.380000001</v>
-      </c>
-      <c r="D95">
-        <f t="shared" si="1"/>
-        <v>13.426305771752711</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>44501</v>
       </c>
       <c r="B96" s="1">
         <v>224939956.91</v>
       </c>
-      <c r="C96" s="2">
-        <v>14216620.039999999</v>
-      </c>
-      <c r="D96">
-        <f t="shared" si="1"/>
-        <v>15.822323187727257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>44531</v>
       </c>
       <c r="B97" s="1">
         <v>253649906.17000005</v>
       </c>
-      <c r="C97" s="2">
-        <v>11462637.209999999</v>
-      </c>
-      <c r="D97">
-        <f t="shared" si="1"/>
-        <v>22.12840740948479</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>44562</v>
       </c>
       <c r="B98" s="1">
         <v>317583208.86000001</v>
       </c>
-      <c r="C98" s="1">
-        <v>19577983</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="1"/>
-        <v>16.221446757819741</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>44593</v>
       </c>
       <c r="B99" s="1">
         <v>359301157.21000004</v>
       </c>
-      <c r="C99" s="1">
-        <v>19041399.620000001</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="1"/>
-        <v>18.869472012583078</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>44621</v>
       </c>
       <c r="B100" s="1">
         <v>369389481.29000002</v>
       </c>
-      <c r="C100" s="1">
-        <v>13113998.440000001</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="1"/>
-        <v>28.167570934223779</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>44652</v>
       </c>
       <c r="B101" s="1">
         <v>890482512.07000005</v>
       </c>
-      <c r="C101" s="1">
-        <v>19301579.280000001</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="1"/>
-        <v>46.135215111268344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>44682</v>
       </c>
       <c r="B102" s="1">
         <v>1563683314.6199999</v>
       </c>
-      <c r="C102" s="1">
-        <v>27956239.609999999</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="1"/>
-        <v>55.933249121983756</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>44713</v>
       </c>
       <c r="B103" s="1">
         <v>694205622.51000011</v>
       </c>
-      <c r="C103" s="1">
-        <v>13565963.029999999</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="1"/>
-        <v>51.172601677803641</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>44743</v>
       </c>
       <c r="B104" s="1">
         <v>852759199.73999989</v>
       </c>
-      <c r="C104" s="1">
-        <v>20321207.899999999</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="1"/>
-        <v>41.964001546384452</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>44774</v>
       </c>
       <c r="B105" s="1">
         <v>758516386.58000004</v>
       </c>
-      <c r="C105" s="1">
-        <v>16766825.109999999</v>
-      </c>
-      <c r="D105">
-        <f t="shared" si="1"/>
-        <v>45.239118414112212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>44805</v>
       </c>
       <c r="B106" s="1">
         <v>681220299.29999983</v>
       </c>
-      <c r="C106" s="1">
-        <v>18205871.32</v>
-      </c>
-      <c r="D106">
-        <f t="shared" si="1"/>
-        <v>37.417615851851458</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>44835</v>
       </c>
       <c r="B107" s="1">
         <v>566378731.22000003</v>
       </c>
-      <c r="C107" s="1">
-        <v>14367665.140000001</v>
-      </c>
-      <c r="D107">
-        <f t="shared" si="1"/>
-        <v>39.420373853451323</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>44866</v>
       </c>
       <c r="B108" s="1">
         <v>754304349.63</v>
       </c>
-      <c r="C108" s="1">
-        <v>18324174.07</v>
-      </c>
-      <c r="D108">
-        <f t="shared" si="1"/>
-        <v>41.164439212839241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>44896</v>
       </c>
       <c r="B109" s="1">
         <v>797786658.9599998</v>
       </c>
-      <c r="C109" s="1">
-        <v>19945980.530000001</v>
-      </c>
-      <c r="D109">
-        <f t="shared" si="1"/>
-        <v>39.997364770314441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>44927</v>
       </c>
       <c r="B110" s="6">
         <v>521979793</v>
       </c>
-      <c r="C110" s="3">
-        <v>13553745.339999998</v>
-      </c>
-      <c r="D110">
-        <f t="shared" si="1"/>
-        <v>38.511848932230279</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>44958</v>
       </c>
       <c r="B111" s="6">
         <v>562573142.79999995</v>
       </c>
-      <c r="C111" s="3">
-        <v>17964496.32</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="1"/>
-        <v>31.315831670364357</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>44986</v>
       </c>
       <c r="B112" s="6">
         <v>831597297.10000002</v>
       </c>
-      <c r="C112" s="3">
-        <v>23546006.119999997</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="1"/>
-        <v>35.317976766923564</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>45017</v>
       </c>
       <c r="B113" s="6">
         <v>543057702.79999995</v>
       </c>
-      <c r="C113" s="3">
-        <v>15756995.079999998</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="1"/>
-        <v>34.46454733550631</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>45047</v>
       </c>
       <c r="B114" s="6">
         <v>572489945.60000002</v>
       </c>
-      <c r="C114" s="3">
-        <v>21378946.619999997</v>
-      </c>
-      <c r="D114">
-        <f t="shared" si="1"/>
-        <v>26.778211095977753</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>45078</v>
       </c>
       <c r="B115" s="6">
         <v>596667261.60000002</v>
       </c>
-      <c r="C115" s="3">
-        <v>18204363.179999996</v>
-      </c>
-      <c r="D115">
-        <f t="shared" si="1"/>
-        <v>32.776057898884446</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>45108</v>
       </c>
       <c r="B116" s="6">
         <v>476374345.89999998</v>
       </c>
-      <c r="C116" s="3">
-        <v>15944124.989999996</v>
-      </c>
-      <c r="D116">
-        <f t="shared" si="1"/>
-        <v>29.8777352911356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>45139</v>
       </c>
       <c r="B117" s="6">
         <v>619684674.10000002</v>
       </c>
-      <c r="C117" s="3">
-        <v>20462357.710000001</v>
-      </c>
-      <c r="D117">
-        <f t="shared" si="1"/>
-        <v>30.284128685579507</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>45170</v>
       </c>
       <c r="B118" s="6">
         <v>362264520.69999999</v>
       </c>
-      <c r="C118" s="3">
-        <v>13834486.049999999</v>
-      </c>
-      <c r="D118">
-        <f t="shared" si="1"/>
-        <v>26.185614658233003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B119" s="6">
         <v>531278245.39999998</v>
       </c>
-      <c r="D119" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5119,7 +3091,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5585,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CE6849-87DF-4E28-99DE-F228713F2FB0}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:B56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/litio_aus_chl.xlsx
+++ b/litio_aus_chl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e22b8e11b397fbcd/Escritorio/Master Data Science/Tercer Semestre/Financial Data/proyect/LITIO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{751B1944-F704-4E0B-8466-B74E0B6F0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACDB5A0D-F806-4D56-8906-A7AF3FAAF0EF}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{751B1944-F704-4E0B-8466-B74E0B6F0627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7EE8DFF-0069-426D-95F1-C94F93B21243}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15216" activeTab="4" xr2:uid="{E5CF665B-3C0D-4A6C-A74A-159111E0C762}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="15216" activeTab="5" xr2:uid="{E5CF665B-3C0D-4A6C-A74A-159111E0C762}"/>
   </bookViews>
   <sheets>
     <sheet name="lit_chl_prod" sheetId="2" r:id="rId1"/>
@@ -1672,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CA7196-8A38-4E89-B481-AF5890D9A5E9}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B118"/>
     </sheetView>
   </sheetViews>
@@ -3090,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C5E621-A7B8-4B1C-9A0F-3ADF66FA2E12}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3537,7 +3537,7 @@
         <v>45078</v>
       </c>
       <c r="B55" s="9">
-        <v>5523</v>
+        <v>852</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3545,7 +3545,7 @@
         <v>45170</v>
       </c>
       <c r="B56" s="9">
-        <v>5523</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -3555,10 +3555,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CE6849-87DF-4E28-99DE-F228713F2FB0}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3566,7 +3566,7 @@
     <col min="1" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3574,609 +3574,444 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>40238</v>
       </c>
       <c r="B2" s="9">
         <v>21.716777</v>
       </c>
-      <c r="C2" s="9">
-        <v>77.483000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>40330</v>
       </c>
       <c r="B3" s="9">
         <v>26.077617</v>
       </c>
-      <c r="C3" s="9">
-        <v>94.692999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>40422</v>
       </c>
       <c r="B4" s="9">
         <v>27.66628781</v>
       </c>
-      <c r="C4" s="9">
-        <v>101.34699999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>40513</v>
       </c>
       <c r="B5" s="9">
         <v>16.721578000000001</v>
       </c>
-      <c r="C5" s="9">
-        <v>53.341999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>40603</v>
       </c>
       <c r="B6" s="9">
         <v>29.212876999999999</v>
       </c>
-      <c r="C6" s="9">
-        <v>101.30500000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>40695</v>
       </c>
       <c r="B7" s="9">
         <v>29.716937160000001</v>
       </c>
-      <c r="C7" s="9">
-        <v>96.423699999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>40787</v>
       </c>
       <c r="B8" s="9">
         <v>31.224095949999999</v>
       </c>
-      <c r="C8" s="9">
-        <v>108.71615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>40878</v>
       </c>
       <c r="B9" s="9">
         <v>27.173378790000001</v>
       </c>
-      <c r="C9" s="9">
-        <v>95.090999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>40969</v>
       </c>
       <c r="B10" s="9">
         <v>44.613789560000001</v>
       </c>
-      <c r="C10" s="9">
-        <v>143.05491000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>41061</v>
       </c>
       <c r="B11" s="9">
         <v>35.402556760000003</v>
       </c>
-      <c r="C11" s="9">
-        <v>114.25875000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>41153</v>
       </c>
       <c r="B12" s="9">
         <v>40.680747099999998</v>
       </c>
-      <c r="C12" s="9">
-        <v>124.63388999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>41244</v>
       </c>
       <c r="B13" s="9">
         <v>41.492288469999998</v>
       </c>
-      <c r="C13" s="9">
-        <v>118.95099999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>41334</v>
       </c>
       <c r="B14" s="9">
         <v>32.08433471</v>
       </c>
-      <c r="C14" s="9">
-        <v>87.549000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>41426</v>
       </c>
       <c r="B15" s="9">
         <v>64.529314069999998</v>
       </c>
-      <c r="C15" s="9">
-        <v>154.745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>41518</v>
       </c>
       <c r="B16" s="9">
         <v>31.50990835</v>
       </c>
-      <c r="C16" s="9">
-        <v>69.808999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>41609</v>
       </c>
       <c r="B17" s="9">
         <v>41.162987289999997</v>
       </c>
-      <c r="C17" s="9">
-        <v>93.016000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>41699</v>
       </c>
       <c r="B18" s="9">
         <v>32.743884000000001</v>
       </c>
-      <c r="C18" s="9">
-        <v>68.242000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>41791</v>
       </c>
       <c r="B19" s="9">
         <v>45.147598000000002</v>
       </c>
-      <c r="C19" s="9">
-        <v>110.998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>41883</v>
       </c>
       <c r="B20" s="9">
         <v>41.524011999999999</v>
       </c>
-      <c r="C20" s="9">
-        <v>98.152000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>41974</v>
       </c>
       <c r="B21" s="9">
         <v>82.102267999999995</v>
       </c>
-      <c r="C21" s="9">
-        <v>167.154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>42064</v>
       </c>
       <c r="B22" s="9">
         <v>63.922114000000001</v>
       </c>
-      <c r="C22" s="9">
-        <v>117.108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>42156</v>
       </c>
       <c r="B23" s="9">
         <v>58.325992999999997</v>
       </c>
-      <c r="C23" s="9">
-        <v>106.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>42248</v>
       </c>
       <c r="B24" s="9">
         <v>91.582151999999994</v>
       </c>
-      <c r="C24" s="9">
-        <v>169.30600000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>42339</v>
       </c>
       <c r="B25" s="9">
         <v>26.348013000000002</v>
       </c>
-      <c r="C25" s="9">
-        <v>46.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>42430</v>
       </c>
       <c r="B26" s="9">
         <v>67.054581999999996</v>
       </c>
-      <c r="C26" s="9">
-        <v>112.768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>42522</v>
       </c>
       <c r="B27" s="9">
         <v>75.736793000000006</v>
       </c>
-      <c r="C27" s="9">
-        <v>137.303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>42614</v>
       </c>
       <c r="B28" s="9">
         <v>66.685486999999995</v>
       </c>
-      <c r="C28" s="9">
-        <v>122.422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>42705</v>
       </c>
       <c r="B29" s="9">
         <v>84.382779999999997</v>
       </c>
-      <c r="C29" s="9">
-        <v>149.68799999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>42795</v>
       </c>
       <c r="B30" s="9">
         <v>134.485433</v>
       </c>
-      <c r="C30" s="9">
-        <v>197.61623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>42887</v>
       </c>
       <c r="B31" s="9">
         <v>309.91839499999998</v>
       </c>
-      <c r="C31" s="9">
-        <v>444.33004499999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>42979</v>
       </c>
       <c r="B32" s="9">
         <v>305.88753000000003</v>
       </c>
-      <c r="C32" s="9">
-        <v>443.59343749999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>43070</v>
       </c>
       <c r="B33" s="9">
         <v>448.23720900000001</v>
       </c>
-      <c r="C33" s="9">
-        <v>621.07889750000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>43160</v>
       </c>
       <c r="B34" s="9">
         <v>448.96411000000001</v>
       </c>
-      <c r="C34" s="9">
-        <v>535.00334250000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>43252</v>
       </c>
       <c r="B35" s="9">
         <v>495.37811799999997</v>
       </c>
-      <c r="C35" s="9">
-        <v>538.55034000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>43344</v>
       </c>
       <c r="B36" s="9">
         <v>461.28775999999999</v>
       </c>
-      <c r="C36" s="9">
-        <v>472.00327750000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>43435</v>
       </c>
       <c r="B37" s="9">
         <v>457.37945100000002</v>
       </c>
-      <c r="C37" s="9">
-        <v>420.35548999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>43525</v>
       </c>
       <c r="B38" s="10">
         <v>391.29296499999998</v>
       </c>
-      <c r="C38" s="10">
-        <v>405.89135299999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>43617</v>
       </c>
       <c r="B39" s="9">
         <v>351.14332300000001</v>
       </c>
-      <c r="C39" s="9">
-        <v>398.65753999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>43709</v>
       </c>
       <c r="B40" s="9">
         <v>326.05080600000002</v>
       </c>
-      <c r="C40" s="9">
-        <v>407.5017105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>43800</v>
       </c>
       <c r="B41" s="9">
         <v>248.86644699999999</v>
       </c>
-      <c r="C41" s="9">
-        <v>376.21242000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>43891</v>
       </c>
       <c r="B42" s="9">
         <v>234.55637300000001</v>
       </c>
-      <c r="C42" s="9">
-        <v>363.39028000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>43983</v>
       </c>
       <c r="B43" s="9">
         <v>189.18253200000001</v>
       </c>
-      <c r="C43" s="9">
-        <v>312.69251000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>44075</v>
       </c>
       <c r="B44" s="9">
         <v>178.09383199999999</v>
       </c>
-      <c r="C44" s="9">
-        <v>360.40602200000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44166</v>
       </c>
       <c r="B45" s="9">
         <v>220.93807799999999</v>
       </c>
-      <c r="C45" s="9">
-        <v>440.751215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44256</v>
       </c>
       <c r="B46" s="9">
         <v>193.96520799999999</v>
       </c>
-      <c r="C46" s="9">
-        <v>392.93100149999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44348</v>
       </c>
       <c r="B47" s="9">
         <v>314.58914099999998</v>
       </c>
-      <c r="C47" s="9">
-        <v>555.49706300000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>44440</v>
       </c>
       <c r="B48" s="9">
         <v>487.11267099999998</v>
       </c>
-      <c r="C48" s="9">
-        <v>549.58311100000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>44531</v>
       </c>
       <c r="B49" s="9">
         <v>637.85230300000001</v>
       </c>
-      <c r="C49" s="9">
-        <v>502.60823499999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>44621</v>
       </c>
       <c r="B50" s="9">
         <v>1185.6715380000001</v>
       </c>
-      <c r="C50" s="9">
-        <v>477.31236200000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>44713</v>
       </c>
       <c r="B51" s="9">
         <v>2588.6723849999998</v>
       </c>
-      <c r="C51" s="9">
-        <v>718.07453480000004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>44805</v>
       </c>
       <c r="B52" s="9">
         <v>3482.9113609999999</v>
       </c>
-      <c r="C52" s="9">
-        <v>690.92781660000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>44896</v>
       </c>
       <c r="B53" s="9">
         <v>4867.6931880000002</v>
       </c>
-      <c r="C53" s="9">
-        <v>816.80843276999997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>44986</v>
       </c>
       <c r="B54" s="9">
         <v>6236.3483910000004</v>
       </c>
-      <c r="C54" s="9">
-        <v>922.56311628000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>45078</v>
       </c>
       <c r="B55" s="9">
         <v>5523</v>
       </c>
-      <c r="C55" s="9">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>45170</v>
       </c>
       <c r="B56" s="11">
         <v>5523</v>
-      </c>
-      <c r="C56">
-        <v>834</v>
       </c>
     </row>
   </sheetData>
